--- a/data/inventorySpreadsheet.xlsx
+++ b/data/inventorySpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708AE1A1-89A1-4B85-8F7F-8BF6EBDFA13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0D2BD-5606-479C-A16D-D512A3FB5F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="945" windowWidth="21600" windowHeight="13560" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
+    <workbookView xWindow="3615" yWindow="675" windowWidth="21600" windowHeight="13560" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,42 @@
   </si>
   <si>
     <t>Mascara</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>Thief Kit</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>Brown Leather Shoes</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>Brown Leather Pants</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>Brown Leather Shirt</t>
+  </si>
+  <si>
+    <t>undies</t>
+  </si>
+  <si>
+    <t>Brown Leather Undies</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>All Purpose Trap</t>
   </si>
 </sst>
 </file>
@@ -512,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B65D1-9EFF-4A63-A156-693B25A756DB}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,15 +766,73 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/inventorySpreadsheet.xlsx
+++ b/data/inventorySpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0D2BD-5606-479C-A16D-D512A3FB5F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC61CC-265E-4720-B2E8-EFEE314CA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="675" windowWidth="21600" windowHeight="13560" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Mascara</t>
   </si>
   <si>
-    <t>steal</t>
-  </si>
-  <si>
     <t>Thief Kit</t>
   </si>
   <si>
@@ -147,6 +144,45 @@
   </si>
   <si>
     <t>All Purpose Trap</t>
+  </si>
+  <si>
+    <t>thiefk</t>
+  </si>
+  <si>
+    <t>papbag</t>
+  </si>
+  <si>
+    <t>Brown Paper Bag</t>
+  </si>
+  <si>
+    <t>lighter</t>
+  </si>
+  <si>
+    <t>Cigarette Lighter</t>
+  </si>
+  <si>
+    <t>dogshit</t>
+  </si>
+  <si>
+    <t>Dog Shit</t>
+  </si>
+  <si>
+    <t>skate</t>
+  </si>
+  <si>
+    <t>Skateboard</t>
+  </si>
+  <si>
+    <t>walr</t>
+  </si>
+  <si>
+    <t>Walrus</t>
+  </si>
+  <si>
+    <t>bsuit</t>
+  </si>
+  <si>
+    <t>Full body brown leather onesie</t>
   </si>
 </sst>
 </file>
@@ -217,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -233,7 +269,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B65D1-9EFF-4A63-A156-693B25A756DB}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +625,13 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="8"/>
@@ -606,13 +641,13 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="8"/>
@@ -622,13 +657,13 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="8"/>
@@ -638,13 +673,13 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="8"/>
@@ -654,13 +689,13 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="8"/>
@@ -670,13 +705,13 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="8"/>
@@ -686,13 +721,13 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="8"/>
@@ -702,13 +737,13 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
@@ -718,13 +753,13 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
@@ -734,13 +769,13 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
@@ -750,13 +785,13 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="8"/>
@@ -766,13 +801,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" s="8"/>
@@ -781,56 +816,125 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventorySpreadsheet.xlsx
+++ b/data/inventorySpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\rodtronics.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BC61CC-265E-4720-B2E8-EFEE314CA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A638636-6E7C-41EF-B868-4D8F49954556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13560" xr2:uid="{4551445C-2624-46C5-8B2A-C89CDB5C9D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>crime committer inventory list</t>
-  </si>
-  <si>
     <t>quantity held</t>
   </si>
   <si>
@@ -183,6 +180,48 @@
   </si>
   <si>
     <t>Full body brown leather onesie</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>Brown Leather Socks</t>
+  </si>
+  <si>
+    <t>bnote</t>
+  </si>
+  <si>
+    <t>Blank Bank Notes</t>
+  </si>
+  <si>
+    <t>loitb</t>
+  </si>
+  <si>
+    <t>Badge for loitering</t>
+  </si>
+  <si>
+    <t>forges</t>
+  </si>
+  <si>
+    <t>Forgery set</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>Just some books</t>
+  </si>
+  <si>
+    <t>thugs</t>
+  </si>
+  <si>
+    <t>Hired thugs</t>
   </si>
 </sst>
 </file>
@@ -193,7 +232,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$NT$-404]* #,##0.00_-;\-[$NT$-404]* #,##0.00_-;_-[$NT$-404]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,27 +241,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="0"/>
-      <name val="Fira Code"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Source Code Pro"/>
       <family val="3"/>
     </font>
@@ -255,20 +288,20 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,361 +616,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B65D1-9EFF-4A63-A156-693B25A756DB}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:6" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>